--- a/data/trans_dic/Q17F_D_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Q17F_D_R3-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,17; 18,3</t>
+          <t>6,25; 18,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,9; 18,12</t>
+          <t>8,42; 18,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,64; 17,37</t>
+          <t>7,87; 17,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 18,82</t>
+          <t>6,42; 18,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 10,52</t>
+          <t>3,32; 10,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,95; 13,88</t>
+          <t>6,05; 14,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,42; 17,32</t>
+          <t>8,92; 17,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,76; 18,67</t>
+          <t>9,97; 18,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 11,9</t>
+          <t>5,8; 12,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,59; 13,58</t>
+          <t>7,73; 13,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,31; 15,48</t>
+          <t>8,91; 15,57</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,79; 16,29</t>
+          <t>9,46; 16,27</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,07; 12,37</t>
+          <t>4,17; 12,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,14; 16,94</t>
+          <t>8,59; 18,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,25; 12,65</t>
+          <t>5,14; 12,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,78; 20,29</t>
+          <t>9,73; 19,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,7; 12,8</t>
+          <t>6,03; 13,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,41; 13,08</t>
+          <t>6,32; 12,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,35; 11,51</t>
+          <t>5,12; 11,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,5; 21,86</t>
+          <t>13,12; 21,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,95; 11,4</t>
+          <t>6,1; 11,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,98; 13,04</t>
+          <t>8,03; 13,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,85; 10,3</t>
+          <t>5,89; 10,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,88; 19,61</t>
+          <t>12,82; 19,35</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,6; 26,41</t>
+          <t>11,73; 25,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,06; 20,45</t>
+          <t>8,92; 21,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,84; 24,07</t>
+          <t>10,23; 23,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,14; 34,54</t>
+          <t>18,28; 34,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,6; 20,17</t>
+          <t>10,45; 20,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 17,57</t>
+          <t>7,35; 17,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,33; 25,06</t>
+          <t>14,07; 24,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,04; 30,74</t>
+          <t>18,3; 30,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,32; 20,89</t>
+          <t>12,21; 20,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,49; 16,91</t>
+          <t>9,46; 16,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,54; 22,67</t>
+          <t>14,55; 22,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,92; 29,56</t>
+          <t>19,79; 30,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,89; 17,9</t>
+          <t>8,85; 18,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,78; 18,47</t>
+          <t>7,93; 18,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 13,17</t>
+          <t>5,95; 13,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,37; 27,84</t>
+          <t>16,0; 27,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,79; 16,87</t>
+          <t>8,75; 16,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,43; 15,4</t>
+          <t>8,44; 15,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,18; 17,56</t>
+          <t>9,3; 17,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,82; 25,75</t>
+          <t>10,23; 25,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,66; 15,56</t>
+          <t>9,64; 15,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,31; 15,2</t>
+          <t>9,37; 15,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,53; 14,25</t>
+          <t>8,49; 14,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,69; 24,11</t>
+          <t>12,8; 24,01</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,69; 15,14</t>
+          <t>9,8; 14,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,15; 15,24</t>
+          <t>10,18; 15,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,61; 13,21</t>
+          <t>8,78; 13,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,48; 21,56</t>
+          <t>15,31; 21,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,85</t>
+          <t>8,83; 12,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,94; 12,56</t>
+          <t>8,62; 12,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,61; 14,84</t>
+          <t>10,69; 14,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,8; 21,41</t>
+          <t>14,3; 21,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,88; 13,09</t>
+          <t>9,76; 12,96</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,92; 12,93</t>
+          <t>9,95; 13,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,31; 13,39</t>
+          <t>10,23; 13,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,13; 20,33</t>
+          <t>15,51; 20,45</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil IV de 2023: &gt;15 días)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12817</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21515</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21014</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12262</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11775</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21006</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28178</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21664</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>24592</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>42521</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>49191</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>33926</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6986; 20369</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>14793; 32717</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14171; 31929</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6981; 19820</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6129; 19086</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13468; 31387</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20242; 40319</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15775; 29277</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17189; 36173</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>30820; 55326</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>36251; 63389</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>25275; 43443</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13128</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26866</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21264</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24360</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>25908</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>32483</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26556</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34910</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>39036</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>59349</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>47820</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>59270</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7235; 21479</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19087; 40467</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13216; 32523</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>16754; 34293</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17203; 38545</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>22026; 45032</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17538; 39167</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>26728; 43933</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>27950; 52628</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>45831; 75319</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>35287; 61926</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>48184; 72743</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24746</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22708</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>26984</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>31512</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>28596</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>25009</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>46534</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>34076</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>53342</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>47716</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>73518</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>65587</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15971; 34602</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14655; 34797</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>17049; 38692</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>22546; 41939</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>20246; 40252</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15528; 35981</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>33881; 59797</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26181; 43203</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>40285; 66435</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>35520; 62210</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>59284; 91569</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>52739; 80011</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>23686</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22791</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>19155</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>42520</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>37181</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>38385</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>37606</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>66441</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>60867</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>61176</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>56761</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>108961</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>16277; 33158</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14557; 33668</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>12648; 28491</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>32332; 56127</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>26660; 51137</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>27482; 51074</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>27620; 51707</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>35425; 88147</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>47090; 76536</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>47755; 78092</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>43261; 72848</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>70193; 131627</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>74377</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>93880</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>88417</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>110653</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>103460</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>116882</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>138873</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>157091</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>177837</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>210762</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>227291</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>267744</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>59288; 90084</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>75938; 113125</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>71659; 109319</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>92863; 129600</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>85481; 123824</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>95519; 137801</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>118387; 162123</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>121737; 180635</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>153636; 203874</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>184530; 243251</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>196733; 258302</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>226106; 298147</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>